--- a/data/Empty-data.xlsx
+++ b/data/Empty-data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="615" windowWidth="27795" windowHeight="14085" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="675" windowWidth="27795" windowHeight="14025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="For Converting" sheetId="2" r:id="rId1"/>
     <sheet name="For Editing" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="theRadevs_2019_12_11" localSheetId="1">'For Editing'!$A$1:$X$10</definedName>
+    <definedName name="theRadevs_2019_12_11" localSheetId="1">'For Editing'!$A$1:$Y$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -449,13 +449,25 @@
   </si>
   <si>
     <t>Put hire the title of the FMTree data file</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>42.766260, 25.238575,6</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +475,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Monotype Corsiva"/>
+      <family val="4"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,12 +504,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -796,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -805,7 +825,7 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>IF('For Editing'!A1="",NA(),'For Editing'!A1)</f>
         <v>name</v>
@@ -860,50 +880,54 @@
       </c>
       <c r="N1" t="str">
         <f>IF('For Editing'!N1="",NA(),'For Editing'!N1)</f>
-        <v>bdDescr_m</v>
+        <v>privacy</v>
       </c>
       <c r="O1" t="str">
         <f>IF('For Editing'!O1="",NA(),'For Editing'!O1)</f>
-        <v>bdDescr_w</v>
+        <v>bdDescr_m</v>
       </c>
       <c r="P1" t="str">
         <f>IF('For Editing'!P1="",NA(),'For Editing'!P1)</f>
-        <v>bdDescr_f</v>
+        <v>bdDescr_w</v>
       </c>
       <c r="Q1" t="str">
         <f>IF('For Editing'!Q1="",NA(),'For Editing'!Q1)</f>
-        <v>bdDescr_c</v>
+        <v>bdDescr_f</v>
       </c>
       <c r="R1" t="str">
         <f>IF('For Editing'!R1="",NA(),'For Editing'!R1)</f>
-        <v>ddDescr_m</v>
+        <v>bdDescr_c</v>
       </c>
       <c r="S1" t="str">
         <f>IF('For Editing'!S1="",NA(),'For Editing'!S1)</f>
-        <v>ddDescr_w</v>
+        <v>ddDescr_m</v>
       </c>
       <c r="T1" t="str">
         <f>IF('For Editing'!T1="",NA(),'For Editing'!T1)</f>
-        <v>ddDescr_f</v>
+        <v>ddDescr_w</v>
       </c>
       <c r="U1" t="str">
         <f>IF('For Editing'!U1="",NA(),'For Editing'!U1)</f>
-        <v>ddDescr_c</v>
+        <v>ddDescr_f</v>
       </c>
       <c r="V1" t="str">
         <f>IF('For Editing'!V1="",NA(),'For Editing'!V1)</f>
-        <v>tlLabel_g</v>
+        <v>ddDescr_c</v>
       </c>
       <c r="W1" t="str">
         <f>IF('For Editing'!W1="",NA(),'For Editing'!W1)</f>
-        <v>tlLabel_f</v>
+        <v>tlLabel_g</v>
       </c>
       <c r="X1" t="str">
         <f>IF('For Editing'!X1="",NA(),'For Editing'!X1)</f>
+        <v>tlLabel_f</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>IF('For Editing'!Y1="",NA(),'For Editing'!Y1)</f>
         <v>tlLabel_p</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF('For Editing'!A2="",NA(),'For Editing'!A2)</f>
         <v>Put hire the title of the FMTree data file</v>
@@ -925,27 +949,27 @@
         <v>r</v>
       </c>
       <c r="F2" t="e">
-        <f>IF('For Editing'!F2="",NA(),TEXT('For Editing'!F2,"yyyy-m-d"))</f>
+        <f>IF('For Editing'!F2="",NA(),IF(MID('For Editing'!$N2,1,1)="0",TEXT('For Editing'!F2,"yyyy-m-d"),IF(MID('For Editing'!$N2,1,1)="1",TEXT('For Editing'!F2,"yyyy-"),IF(MID('For Editing'!$N2,1,1)="2",TEXT('For Editing'!F2,"-m-d"),NA()))))</f>
         <v>#N/A</v>
       </c>
       <c r="G2" t="e">
-        <f>IF('For Editing'!G2="",NA(),TEXT('For Editing'!G2,"yyyy-m-d"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H2" t="e">
-        <f>IF('For Editing'!H2="",NA(),'For Editing'!H2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I2" t="e">
-        <f>IF('For Editing'!I2="",NA(),'For Editing'!I2)</f>
-        <v>#N/A</v>
+        <f>IF('For Editing'!G2="",NA(),IF(MID('For Editing'!$N2,3,1)="0",TEXT('For Editing'!G2,"yyyy-m-d"),IF(MID('For Editing'!$N2,3,1)="1",TEXT('For Editing'!G2,"yyyy-"),IF(MID('For Editing'!$N2,3,1)="2",TEXT('For Editing'!G2,"-m-d"),NA()))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF('For Editing'!H2="",NA(),IF(MID('For Editing'!$N2,5,1)="0",'For Editing'!H2,NA()))</f>
+        <v>Bulgaria</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF('For Editing'!I2="",NA(),IF(MID('For Editing'!$N2,7,1)="0",'For Editing'!I2,NA()))</f>
+        <v>42.766260, 25.238575,6</v>
       </c>
       <c r="J2" t="e">
-        <f>IF('For Editing'!J2="",NA(),'For Editing'!J2)</f>
+        <f>IF('For Editing'!J2="",NA(),IF(MID('For Editing'!$N2,9,1)="0",'For Editing'!J2,NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f>IF('For Editing'!K2="",NA(),'For Editing'!K2)</f>
+        <f>IF('For Editing'!K2="",NA(),IF(MID('For Editing'!$N2,11,1)="0",'For Editing'!K2,NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="str">
@@ -958,50 +982,54 @@
       </c>
       <c r="N2" t="str">
         <f>IF('For Editing'!N2="",NA(),'For Editing'!N2)</f>
-        <v>роден</v>
+        <v>0,0,0,0,0,0</v>
       </c>
       <c r="O2" t="str">
         <f>IF('For Editing'!O2="",NA(),'For Editing'!O2)</f>
-        <v>родена</v>
+        <v>роден</v>
       </c>
       <c r="P2" t="str">
         <f>IF('For Editing'!P2="",NA(),'For Editing'!P2)</f>
-        <v>брак</v>
+        <v>родена</v>
       </c>
       <c r="Q2" t="str">
         <f>IF('For Editing'!Q2="",NA(),'For Editing'!Q2)</f>
-        <v>съжителство</v>
+        <v>брак</v>
       </c>
       <c r="R2" t="str">
         <f>IF('For Editing'!R2="",NA(),'For Editing'!R2)</f>
-        <v>починал</v>
+        <v>съжителство</v>
       </c>
       <c r="S2" t="str">
         <f>IF('For Editing'!S2="",NA(),'For Editing'!S2)</f>
-        <v>починала</v>
+        <v>починал</v>
       </c>
       <c r="T2" t="str">
         <f>IF('For Editing'!T2="",NA(),'For Editing'!T2)</f>
-        <v>развод</v>
+        <v>починала</v>
       </c>
       <c r="U2" t="str">
         <f>IF('For Editing'!U2="",NA(),'For Editing'!U2)</f>
-        <v>раздяла</v>
+        <v>развод</v>
       </c>
       <c r="V2" t="str">
         <f>IF('For Editing'!V2="",NA(),'For Editing'!V2)</f>
-        <v>Генерации</v>
+        <v>раздяла</v>
       </c>
       <c r="W2" t="str">
         <f>IF('For Editing'!W2="",NA(),'For Editing'!W2)</f>
-        <v>Семейства</v>
+        <v>Генерации</v>
       </c>
       <c r="X2" t="str">
         <f>IF('For Editing'!X2="",NA(),'For Editing'!X2)</f>
+        <v>Семейства</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>IF('For Editing'!Y2="",NA(),'For Editing'!Y2)</f>
         <v>Хора</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="e">
         <f>IF('For Editing'!A3="",NA(),'For Editing'!A3)</f>
         <v>#N/A</v>
@@ -1055,7 +1083,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>IF('For Editing'!A4="",NA(),'For Editing'!A4)</f>
         <v>Invisible Up -5</v>
@@ -1109,7 +1137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>IF('For Editing'!A5="",NA(),'For Editing'!A5)</f>
         <v>Invisible Up -4</v>
@@ -1163,7 +1191,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>IF('For Editing'!A6="",NA(),'For Editing'!A6)</f>
         <v>Invisible Up -3</v>
@@ -1217,7 +1245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>IF('For Editing'!A7="",NA(),'For Editing'!A7)</f>
         <v>Invisible Up -2</v>
@@ -1271,7 +1299,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF('For Editing'!A8="",NA(),'For Editing'!A8)</f>
         <v>Invisible Up -1</v>
@@ -1325,7 +1353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF('For Editing'!A9="",NA(),'For Editing'!A9)</f>
         <v>Invisible Up 0</v>
@@ -1379,7 +1407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF('For Editing'!A10="",NA(),'For Editing'!A10)</f>
         <v>Invisible Up 1</v>
@@ -1433,7 +1461,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>IF('For Editing'!A11="",NA(),'For Editing'!A11)</f>
         <v>Invisible Up 2</v>
@@ -1487,7 +1515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>IF('For Editing'!A12="",NA(),'For Editing'!A12)</f>
         <v>Invisible Up 3</v>
@@ -1541,7 +1569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF('For Editing'!A13="",NA(),'For Editing'!A13)</f>
         <v>Invisible Up 4</v>
@@ -1595,7 +1623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('For Editing'!A14="",NA(),'For Editing'!A14)</f>
         <v>Invisible Up 5</v>
@@ -1649,7 +1677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF('For Editing'!A15="",NA(),'For Editing'!A15)</f>
         <v>Invisible Up 6</v>
@@ -1703,7 +1731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF('For Editing'!A16="",NA(),'For Editing'!A16)</f>
         <v>Invisible Up 7</v>
@@ -3438,13 +3466,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,27 +3481,27 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="28.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3520,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -3514,41 +3542,44 @@
         <v>7</v>
       </c>
       <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B2" t="s">
@@ -3562,6 +3593,12 @@
       </c>
       <c r="E2" t="s">
         <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3572,40 +3609,43 @@
         <v>120</v>
       </c>
       <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>29</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -3618,8 +3658,12 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f>N$2</f>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3632,8 +3676,12 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N25" si="0">N$2</f>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -3646,8 +3694,12 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3660,8 +3712,12 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3674,8 +3730,12 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3688,8 +3748,12 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -3702,8 +3766,12 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3716,8 +3784,12 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3730,8 +3802,12 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3744,8 +3820,12 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3758,8 +3838,12 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3772,8 +3856,12 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3786,8 +3874,12 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -3800,8 +3892,12 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -3814,8 +3910,12 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3828,8 +3928,12 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -3842,8 +3946,12 @@
       <c r="D20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -3856,8 +3964,12 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3870,8 +3982,12 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3884,8 +4000,24 @@
       <c r="D23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -3898,8 +4030,12 @@
       <c r="D26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f>N$2</f>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3912,8 +4048,12 @@
       <c r="D27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f t="shared" ref="N27:N45" si="1">N$2</f>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3926,8 +4066,12 @@
       <c r="D28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3940,8 +4084,12 @@
       <c r="D29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -3954,8 +4102,12 @@
       <c r="D30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3968,8 +4120,12 @@
       <c r="D31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3982,8 +4138,12 @@
       <c r="D32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3996,8 +4156,12 @@
       <c r="D33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4010,8 +4174,12 @@
       <c r="D34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4024,8 +4192,12 @@
       <c r="D35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -4038,8 +4210,12 @@
       <c r="D36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -4052,8 +4228,12 @@
       <c r="D37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4066,8 +4246,12 @@
       <c r="D38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4080,8 +4264,12 @@
       <c r="D39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4094,8 +4282,12 @@
       <c r="D40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -4108,8 +4300,12 @@
       <c r="D41" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4122,8 +4318,12 @@
       <c r="D42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -4136,8 +4336,12 @@
       <c r="D43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -4150,8 +4354,12 @@
       <c r="D44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -4163,6 +4371,10 @@
       </c>
       <c r="D45" t="s">
         <v>20</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0</v>
       </c>
     </row>
   </sheetData>
